--- a/understanding_and_utilizing_test_design_techniques/12_デジションテーブル(電話番号バリデーションチェック).xlsx
+++ b/understanding_and_utilizing_test_design_techniques/12_デジションテーブル(電話番号バリデーションチェック).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E326979-3913-BB4B-B14E-0BFD231987D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D227FBD4-1BAF-FD4D-AF34-18C09E58CB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29800" yWindow="1280" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{DB08B66A-C4F8-AC47-BF01-2F8466925CB5}"/>
+    <workbookView xWindow="29800" yWindow="1280" windowWidth="28300" windowHeight="16900" xr2:uid="{DB08B66A-C4F8-AC47-BF01-2F8466925CB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="サンプル" sheetId="2" r:id="rId1"/>
     <sheet name="デシションテーブル作成課題" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D28F1B5-B22B-3046-87D7-1CB53C7A5BD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
@@ -651,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6A324-48B5-764D-BCB8-3066BCF7C2E1}">
   <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
